--- a/Predicciones Game Awards 2025 (Respuestas).xlsx
+++ b/Predicciones Game Awards 2025 (Respuestas).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15005" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15935" uniqueCount="1106">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -3149,6 +3149,186 @@
   </si>
   <si>
     <t>Fransochi</t>
+  </si>
+  <si>
+    <t>ivyxime</t>
+  </si>
+  <si>
+    <t>ivyximee</t>
+  </si>
+  <si>
+    <t>thejavigg</t>
+  </si>
+  <si>
+    <t>ImMotJaviii</t>
+  </si>
+  <si>
+    <t>Gilgod</t>
+  </si>
+  <si>
+    <t>Alongil11</t>
+  </si>
+  <si>
+    <t>theraaarx_</t>
+  </si>
+  <si>
+    <t>Danithepros123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashcrt </t>
+  </si>
+  <si>
+    <t>AshCrt_</t>
+  </si>
+  <si>
+    <t>boogarin#9292</t>
+  </si>
+  <si>
+    <t>no tengo tilin</t>
+  </si>
+  <si>
+    <t>#alice_2202</t>
+  </si>
+  <si>
+    <t>@_thelittlelady_</t>
+  </si>
+  <si>
+    <t>irissz</t>
+  </si>
+  <si>
+    <t>iriscgz_</t>
+  </si>
+  <si>
+    <t>915064968611786824</t>
+  </si>
+  <si>
+    <t>1993762889409417219</t>
+  </si>
+  <si>
+    <t>matdonut</t>
+  </si>
+  <si>
+    <t>@matdonut</t>
+  </si>
+  <si>
+    <t>bryanfox12_57769</t>
+  </si>
+  <si>
+    <t>no tengo</t>
+  </si>
+  <si>
+    <t>leo14M</t>
+  </si>
+  <si>
+    <t>LMasias14</t>
+  </si>
+  <si>
+    <t>aea1926</t>
+  </si>
+  <si>
+    <t>@JerikRomero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kastorjr8 </t>
+  </si>
+  <si>
+    <t>The_kastorjr</t>
+  </si>
+  <si>
+    <t>josedecrak</t>
+  </si>
+  <si>
+    <t>@Joselaos_</t>
+  </si>
+  <si>
+    <t>draxxsnielgod#9887</t>
+  </si>
+  <si>
+    <t>DraxxsGod9</t>
+  </si>
+  <si>
+    <t>todetex1234</t>
+  </si>
+  <si>
+    <t>TodeteX</t>
+  </si>
+  <si>
+    <t>calamardopro123</t>
+  </si>
+  <si>
+    <t>@calamardop123 (no lo uso mucho, preferiblemente contactar por discord)</t>
+  </si>
+  <si>
+    <t>Romero</t>
+  </si>
+  <si>
+    <t>Chichada</t>
+  </si>
+  <si>
+    <t>chris_eu</t>
+  </si>
+  <si>
+    <t>PvpMucasa2906</t>
+  </si>
+  <si>
+    <t>Jake_78136</t>
+  </si>
+  <si>
+    <t>Jake226101</t>
+  </si>
+  <si>
+    <t>juanes9364</t>
+  </si>
+  <si>
+    <t>@Juan_es777</t>
+  </si>
+  <si>
+    <t>vic_nox</t>
+  </si>
+  <si>
+    <t>@dafack789</t>
+  </si>
+  <si>
+    <t>pikuh2401</t>
+  </si>
+  <si>
+    <t>pikuh</t>
+  </si>
+  <si>
+    <t>valenninjam</t>
+  </si>
+  <si>
+    <t>Valenti46285517</t>
+  </si>
+  <si>
+    <t>fabio063356</t>
+  </si>
+  <si>
+    <t>MarianoCas58946</t>
+  </si>
+  <si>
+    <t>SoggySecrey</t>
+  </si>
+  <si>
+    <t>@SoggySecrey</t>
+  </si>
+  <si>
+    <t>Carlosleon202</t>
+  </si>
+  <si>
+    <t>@carlosleon202</t>
+  </si>
+  <si>
+    <t>nowhere_vic</t>
+  </si>
+  <si>
+    <t>@troubles_fansqk</t>
+  </si>
+  <si>
+    <t>truear</t>
+  </si>
+  <si>
+    <t>trueangelr</t>
   </si>
 </sst>
 </file>
@@ -3290,7 +3470,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AF484" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AF514" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="32">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Nick de Discord" id="2"/>
@@ -50999,6 +51179,2946 @@
         <v>129</v>
       </c>
     </row>
+    <row r="485" ht="22.5" customHeight="1">
+      <c r="A485" s="4">
+        <v>46002.427370405094</v>
+      </c>
+      <c r="B485" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C485" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D485" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E485" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F485" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G485" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H485" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I485" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J485" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K485" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L485" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M485" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N485" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="O485" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P485" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q485" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R485" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="S485" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T485" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U485" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V485" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="W485" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X485" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y485" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z485" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA485" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB485" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC485" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD485" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE485" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF485" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="486" ht="22.5" customHeight="1">
+      <c r="A486" s="4">
+        <v>46002.43067137731</v>
+      </c>
+      <c r="B486" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C486" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D486" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E486" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F486" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G486" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H486" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I486" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J486" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K486" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L486" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M486" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N486" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O486" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P486" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q486" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="R486" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S486" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T486" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U486" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="V486" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W486" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X486" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y486" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z486" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA486" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB486" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC486" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD486" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE486" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF486" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="487" ht="22.5" customHeight="1">
+      <c r="A487" s="4">
+        <v>46002.43158122685</v>
+      </c>
+      <c r="B487" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C487" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D487" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E487" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F487" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G487" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H487" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I487" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J487" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K487" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L487" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M487" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N487" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O487" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P487" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q487" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R487" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S487" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T487" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U487" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V487" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="W487" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X487" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y487" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z487" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA487" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB487" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC487" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD487" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE487" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF487" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="488" ht="22.5" customHeight="1">
+      <c r="A488" s="4">
+        <v>46002.444758425925</v>
+      </c>
+      <c r="B488" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C488" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D488" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E488" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F488" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G488" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H488" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I488" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J488" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K488" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L488" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M488" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N488" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O488" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P488" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q488" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R488" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S488" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T488" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U488" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="V488" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="W488" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="X488" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y488" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z488" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA488" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB488" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC488" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD488" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE488" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF488" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="489" ht="22.5" customHeight="1">
+      <c r="A489" s="4">
+        <v>46002.45127523148</v>
+      </c>
+      <c r="B489" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C489" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D489" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E489" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F489" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G489" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H489" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I489" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J489" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K489" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L489" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M489" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N489" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O489" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P489" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q489" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R489" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S489" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T489" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="U489" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V489" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W489" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X489" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y489" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z489" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA489" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB489" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC489" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD489" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE489" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF489" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="490" ht="22.5" customHeight="1">
+      <c r="A490" s="4">
+        <v>46002.46161813657</v>
+      </c>
+      <c r="B490" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C490" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D490" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E490" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F490" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G490" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H490" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I490" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J490" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K490" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L490" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M490" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N490" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O490" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P490" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q490" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="R490" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="S490" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T490" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U490" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V490" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W490" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X490" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y490" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z490" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA490" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB490" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC490" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD490" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE490" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF490" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="491" ht="22.5" customHeight="1">
+      <c r="A491" s="4">
+        <v>46002.46543049769</v>
+      </c>
+      <c r="B491" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C491" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D491" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E491" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F491" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G491" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H491" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I491" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J491" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K491" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L491" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M491" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N491" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O491" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P491" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q491" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="R491" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S491" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T491" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U491" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V491" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W491" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X491" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y491" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z491" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA491" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB491" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC491" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD491" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE491" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF491" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="492" ht="22.5" customHeight="1">
+      <c r="A492" s="4">
+        <v>46002.48956091436</v>
+      </c>
+      <c r="B492" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D492" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E492" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F492" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G492" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H492" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I492" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J492" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K492" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L492" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M492" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N492" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O492" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P492" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q492" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R492" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S492" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T492" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="U492" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V492" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="W492" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X492" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y492" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z492" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA492" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB492" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC492" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD492" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE492" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF492" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="493" ht="22.5" customHeight="1">
+      <c r="A493" s="4">
+        <v>46002.4957683449</v>
+      </c>
+      <c r="B493" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C493" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D493" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E493" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F493" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G493" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H493" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I493" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J493" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K493" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L493" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M493" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N493" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O493" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P493" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q493" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R493" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S493" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T493" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U493" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V493" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W493" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X493" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y493" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z493" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA493" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB493" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC493" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD493" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE493" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF493" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="494" ht="22.5" customHeight="1">
+      <c r="A494" s="4">
+        <v>46002.49967518519</v>
+      </c>
+      <c r="B494" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C494" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D494" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E494" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F494" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G494" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H494" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I494" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J494" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K494" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L494" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M494" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N494" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O494" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P494" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q494" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R494" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="S494" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T494" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U494" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V494" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W494" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X494" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y494" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z494" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA494" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB494" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC494" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD494" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE494" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF494" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="495" ht="22.5" customHeight="1">
+      <c r="A495" s="4">
+        <v>46002.501986944444</v>
+      </c>
+      <c r="B495" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C495" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D495" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E495" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F495" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G495" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H495" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I495" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J495" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K495" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L495" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M495" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N495" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O495" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P495" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q495" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R495" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="S495" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T495" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="U495" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="V495" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W495" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X495" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y495" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z495" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA495" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB495" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC495" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD495" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE495" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF495" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="496" ht="22.5" customHeight="1">
+      <c r="A496" s="4">
+        <v>46002.522558888886</v>
+      </c>
+      <c r="B496" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C496" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D496" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E496" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F496" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G496" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H496" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I496" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J496" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K496" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L496" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M496" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N496" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O496" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="P496" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q496" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R496" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="S496" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T496" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U496" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V496" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="W496" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X496" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y496" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z496" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA496" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB496" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC496" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD496" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE496" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF496" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="497" ht="22.5" customHeight="1">
+      <c r="A497" s="4">
+        <v>46002.53236806713</v>
+      </c>
+      <c r="B497" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C497" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D497" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E497" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F497" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G497" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H497" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I497" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J497" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K497" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L497" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M497" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N497" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O497" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P497" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q497" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R497" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S497" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T497" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U497" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V497" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W497" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X497" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y497" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z497" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA497" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB497" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC497" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD497" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE497" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF497" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="498" ht="22.5" customHeight="1">
+      <c r="A498" s="4">
+        <v>46002.5391546875</v>
+      </c>
+      <c r="B498" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C498" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D498" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E498" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F498" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G498" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H498" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I498" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J498" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K498" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L498" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M498" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N498" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O498" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P498" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q498" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R498" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S498" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T498" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U498" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="V498" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W498" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X498" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y498" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z498" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA498" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB498" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC498" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD498" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE498" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF498" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="499" ht="22.5" customHeight="1">
+      <c r="A499" s="4">
+        <v>46002.54141032408</v>
+      </c>
+      <c r="B499" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C499" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D499" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E499" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F499" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G499" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H499" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I499" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J499" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K499" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L499" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M499" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N499" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O499" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P499" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q499" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R499" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S499" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T499" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U499" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V499" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="W499" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X499" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y499" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z499" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA499" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB499" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC499" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD499" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE499" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF499" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="500" ht="22.5" customHeight="1">
+      <c r="A500" s="4">
+        <v>46002.543174108796</v>
+      </c>
+      <c r="B500" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C500" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D500" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E500" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F500" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G500" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H500" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I500" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J500" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K500" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L500" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M500" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N500" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="O500" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P500" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q500" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="R500" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S500" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T500" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U500" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V500" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W500" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X500" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y500" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z500" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA500" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB500" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC500" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD500" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE500" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF500" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="501" ht="22.5" customHeight="1">
+      <c r="A501" s="4">
+        <v>46002.550163761574</v>
+      </c>
+      <c r="B501" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C501" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D501" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E501" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F501" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G501" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H501" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I501" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J501" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K501" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L501" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M501" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N501" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O501" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P501" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q501" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R501" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S501" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T501" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U501" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V501" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W501" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X501" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y501" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z501" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA501" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB501" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC501" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD501" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE501" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF501" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="502" ht="22.5" customHeight="1">
+      <c r="A502" s="4">
+        <v>46002.567149236114</v>
+      </c>
+      <c r="B502" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C502" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D502" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E502" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F502" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G502" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H502" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I502" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J502" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K502" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L502" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M502" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N502" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O502" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P502" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q502" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R502" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S502" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T502" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U502" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V502" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W502" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X502" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y502" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z502" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA502" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB502" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC502" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD502" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE502" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF502" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="503" ht="22.5" customHeight="1">
+      <c r="A503" s="4">
+        <v>46002.56740679398</v>
+      </c>
+      <c r="B503" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C503" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D503" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E503" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F503" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G503" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H503" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I503" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J503" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K503" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L503" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M503" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N503" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O503" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P503" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q503" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R503" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S503" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T503" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U503" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V503" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W503" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X503" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y503" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z503" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA503" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB503" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC503" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD503" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="AE503" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF503" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="504" ht="22.5" customHeight="1">
+      <c r="A504" s="4">
+        <v>46002.56967550926</v>
+      </c>
+      <c r="B504" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C504" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D504" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E504" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F504" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G504" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H504" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I504" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J504" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K504" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L504" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M504" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N504" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O504" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P504" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q504" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R504" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S504" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T504" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U504" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="V504" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W504" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X504" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y504" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z504" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA504" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB504" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC504" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD504" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE504" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF504" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="505" ht="22.5" customHeight="1">
+      <c r="A505" s="4">
+        <v>46002.572048483795</v>
+      </c>
+      <c r="B505" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C505" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D505" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E505" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F505" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G505" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H505" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I505" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J505" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K505" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L505" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M505" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N505" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O505" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P505" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q505" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R505" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="S505" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T505" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U505" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V505" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="W505" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X505" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y505" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z505" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA505" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB505" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC505" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD505" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE505" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF505" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="506" ht="22.5" customHeight="1">
+      <c r="A506" s="4">
+        <v>46002.57330960648</v>
+      </c>
+      <c r="B506" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C506" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D506" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E506" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F506" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G506" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H506" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I506" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J506" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K506" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L506" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M506" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N506" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O506" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P506" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q506" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R506" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S506" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T506" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U506" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="V506" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W506" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X506" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y506" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z506" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA506" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB506" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC506" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD506" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE506" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF506" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="507" ht="22.5" customHeight="1">
+      <c r="A507" s="4">
+        <v>46002.5740902199</v>
+      </c>
+      <c r="B507" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C507" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D507" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E507" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F507" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G507" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H507" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I507" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J507" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K507" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L507" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M507" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N507" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O507" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P507" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q507" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R507" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="S507" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T507" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U507" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V507" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="W507" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X507" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y507" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z507" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA507" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB507" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC507" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD507" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE507" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF507" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="508" ht="22.5" customHeight="1">
+      <c r="A508" s="4">
+        <v>46002.59070594907</v>
+      </c>
+      <c r="B508" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C508" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D508" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E508" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F508" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G508" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H508" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I508" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J508" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K508" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L508" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M508" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N508" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O508" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P508" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q508" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R508" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S508" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T508" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U508" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V508" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W508" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X508" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y508" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z508" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA508" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB508" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC508" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD508" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE508" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF508" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="509" ht="22.5" customHeight="1">
+      <c r="A509" s="4">
+        <v>46002.595704629624</v>
+      </c>
+      <c r="B509" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C509" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D509" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E509" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F509" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G509" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H509" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I509" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J509" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K509" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L509" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M509" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N509" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O509" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P509" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q509" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R509" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S509" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T509" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U509" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V509" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W509" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X509" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y509" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z509" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA509" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB509" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC509" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD509" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE509" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF509" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="510" ht="22.5" customHeight="1">
+      <c r="A510" s="4">
+        <v>46002.60465775463</v>
+      </c>
+      <c r="B510" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C510" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D510" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E510" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F510" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G510" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H510" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I510" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J510" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K510" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L510" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M510" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N510" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O510" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P510" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q510" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R510" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="S510" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T510" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="U510" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="V510" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="W510" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X510" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y510" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z510" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA510" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB510" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC510" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD510" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE510" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF510" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="511" ht="22.5" customHeight="1">
+      <c r="A511" s="4">
+        <v>46002.60900048611</v>
+      </c>
+      <c r="B511" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C511" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D511" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E511" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F511" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G511" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H511" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I511" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J511" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K511" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L511" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M511" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N511" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O511" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P511" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q511" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R511" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="S511" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T511" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="U511" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V511" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="W511" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X511" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y511" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z511" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA511" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB511" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC511" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD511" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE511" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF511" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="512" ht="22.5" customHeight="1">
+      <c r="A512" s="4">
+        <v>46002.62398091435</v>
+      </c>
+      <c r="B512" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C512" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D512" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E512" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F512" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G512" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H512" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I512" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J512" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K512" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L512" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M512" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N512" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O512" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P512" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q512" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R512" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S512" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="T512" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U512" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="V512" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="W512" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X512" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y512" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z512" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA512" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB512" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC512" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD512" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE512" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF512" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="513" ht="22.5" customHeight="1">
+      <c r="A513" s="4">
+        <v>46002.629322650464</v>
+      </c>
+      <c r="B513" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C513" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D513" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E513" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F513" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G513" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H513" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I513" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J513" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K513" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L513" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M513" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N513" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O513" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P513" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q513" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R513" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S513" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T513" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U513" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V513" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="W513" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X513" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y513" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z513" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA513" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB513" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC513" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD513" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE513" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF513" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="514" ht="22.5" customHeight="1">
+      <c r="A514" s="4">
+        <v>46002.63524459491</v>
+      </c>
+      <c r="B514" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C514" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D514" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E514" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F514" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G514" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H514" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I514" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J514" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K514" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L514" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M514" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N514" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O514" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P514" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q514" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R514" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="S514" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T514" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U514" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V514" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="W514" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="X514" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y514" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z514" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA514" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB514" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC514" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD514" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE514" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF514" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B419"/>
